--- a/src/Book1.xlsx
+++ b/src/Book1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>may date</t>
   </si>
@@ -52,12 +52,24 @@
   </si>
   <si>
     <t>ETT</t>
+  </si>
+  <si>
+    <t>AERE</t>
+  </si>
+  <si>
+    <t>QQQ</t>
+  </si>
+  <si>
+    <t>PIN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -87,10 +99,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -385,19 +398,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1">
+      <c r="A1" s="3">
         <v>42125</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -423,7 +436,7 @@
       <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="1">
+      <c r="A5" s="3">
         <v>42168</v>
       </c>
       <c r="B5" s="2"/>
@@ -457,7 +470,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="1">
+      <c r="A11" s="3">
         <v>42199</v>
       </c>
     </row>
@@ -474,6 +487,26 @@
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="3">
+        <v>42232</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
